--- a/ListasDatos/Caballero Rosas María Teresa_2021.xlsx
+++ b/ListasDatos/Caballero Rosas María Teresa_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="557">
   <si>
     <t>NC</t>
   </si>
@@ -1211,6 +1211,9 @@
     <t>santilop493@gmail.com</t>
   </si>
   <si>
+    <t>josemart041020@gmail.com</t>
+  </si>
+  <si>
     <t>griselserrano11218@gmail.com</t>
   </si>
   <si>
@@ -1313,6 +1316,9 @@
     <t>2722805311</t>
   </si>
   <si>
+    <t>2721342134</t>
+  </si>
+  <si>
     <t>2721633478</t>
   </si>
   <si>
@@ -1463,6 +1469,9 @@
     <t>AGUSTIN MARTINEZ CRISTOBAL</t>
   </si>
   <si>
+    <t>DANIEL MARTÍNEZ SÁNCHEZ</t>
+  </si>
+  <si>
     <t>FERNANDO JAIR MALDONADO GONZÁLEZ</t>
   </si>
   <si>
@@ -1553,6 +1562,9 @@
     <t>Santilop493@gmail.com</t>
   </si>
   <si>
+    <t>martisandaniel@gmail.com</t>
+  </si>
+  <si>
     <t>ferjair71@gmail.com</t>
   </si>
   <si>
@@ -1626,6 +1638,9 @@
   </si>
   <si>
     <t>2722956004</t>
+  </si>
+  <si>
+    <t>9921059452</t>
   </si>
   <si>
     <t>2721397474</t>
@@ -3337,16 +3352,16 @@
         <v>380</v>
       </c>
       <c r="F2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3366,19 +3381,19 @@
         <v>381</v>
       </c>
       <c r="F3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G3" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H3" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="I3" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="J3" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3398,16 +3413,16 @@
         <v>382</v>
       </c>
       <c r="F4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I4" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3427,19 +3442,19 @@
         <v>383</v>
       </c>
       <c r="F5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G5" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H5" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="I5" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="J5" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3459,19 +3474,19 @@
         <v>384</v>
       </c>
       <c r="F6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G6" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I6" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="J6" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3491,19 +3506,19 @@
         <v>385</v>
       </c>
       <c r="F7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="J7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3523,7 +3538,7 @@
         <v>246</v>
       </c>
       <c r="F8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G8" t="s">
         <v>190</v>
@@ -3555,19 +3570,19 @@
         <v>386</v>
       </c>
       <c r="F9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G9" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H9" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="I9" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="J9" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3587,19 +3602,19 @@
         <v>387</v>
       </c>
       <c r="F10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H10" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="I10" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="J10" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3619,10 +3634,10 @@
         <v>388</v>
       </c>
       <c r="F11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H11" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3642,19 +3657,19 @@
         <v>389</v>
       </c>
       <c r="F12" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G12" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H12" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="I12" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="J12" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3674,19 +3689,19 @@
         <v>390</v>
       </c>
       <c r="F13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H13" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="I13" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="J13" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3706,19 +3721,19 @@
         <v>391</v>
       </c>
       <c r="F14" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G14" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H14" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="I14" t="s">
         <v>391</v>
       </c>
       <c r="J14" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3738,19 +3753,19 @@
         <v>392</v>
       </c>
       <c r="F15" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G15" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H15" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="I15" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="J15" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3770,16 +3785,16 @@
         <v>393</v>
       </c>
       <c r="F16" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H16" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="I16" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="J16" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3799,13 +3814,13 @@
         <v>394</v>
       </c>
       <c r="F17" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H17" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J17" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3825,16 +3840,16 @@
         <v>395</v>
       </c>
       <c r="F18" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H18" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I18" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="J18" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3854,19 +3869,19 @@
         <v>396</v>
       </c>
       <c r="F19" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G19" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H19" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="I19" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="J19" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3886,19 +3901,19 @@
         <v>397</v>
       </c>
       <c r="F20" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G20" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H20" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="I20" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="J20" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3914,6 +3929,24 @@
       <c r="D21" t="s">
         <v>364</v>
       </c>
+      <c r="E21" t="s">
+        <v>398</v>
+      </c>
+      <c r="F21" t="s">
+        <v>433</v>
+      </c>
+      <c r="G21" t="s">
+        <v>433</v>
+      </c>
+      <c r="H21" t="s">
+        <v>484</v>
+      </c>
+      <c r="I21" t="s">
+        <v>515</v>
+      </c>
+      <c r="J21" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
@@ -3929,22 +3962,22 @@
         <v>365</v>
       </c>
       <c r="E22" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F22" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G22" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H22" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="I22" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="J22" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3961,22 +3994,22 @@
         <v>366</v>
       </c>
       <c r="E23" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F23" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G23" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H23" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="I23" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J23" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3993,22 +4026,22 @@
         <v>367</v>
       </c>
       <c r="E24" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F24" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G24" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H24" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="I24" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="J24" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4025,22 +4058,22 @@
         <v>368</v>
       </c>
       <c r="E25" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F25" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G25" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H25" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="I25" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J25" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4057,22 +4090,22 @@
         <v>369</v>
       </c>
       <c r="E26" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F26" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G26" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H26" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="I26" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="J26" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4089,16 +4122,16 @@
         <v>370</v>
       </c>
       <c r="E27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F27" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H27" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="J27" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -4115,22 +4148,22 @@
         <v>371</v>
       </c>
       <c r="E28" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F28" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G28" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H28" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="I28" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="J28" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4147,22 +4180,22 @@
         <v>372</v>
       </c>
       <c r="E29" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F29" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G29" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H29" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="I29" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="J29" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -4179,19 +4212,19 @@
         <v>373</v>
       </c>
       <c r="E30" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F30" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H30" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="I30" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J30" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -4208,22 +4241,22 @@
         <v>374</v>
       </c>
       <c r="E31" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F31" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G31" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H31" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="I31" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="J31" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4240,16 +4273,16 @@
         <v>375</v>
       </c>
       <c r="E32" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F32" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H32" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="J32" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4266,22 +4299,22 @@
         <v>376</v>
       </c>
       <c r="E33" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F33" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G33" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H33" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="I33" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="J33" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4298,22 +4331,22 @@
         <v>377</v>
       </c>
       <c r="E34" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F34" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G34" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H34" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="I34" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="J34" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -4330,22 +4363,22 @@
         <v>378</v>
       </c>
       <c r="E35" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F35" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G35" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H35" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="I35" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="J35" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4362,22 +4395,22 @@
         <v>379</v>
       </c>
       <c r="E36" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F36" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G36" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H36" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="I36" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="J36" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
